--- a/Lancet Covid-19 Commission Data/December 2020 Statement/Lancet Tables Dec 2020/Final Tables/Lancet Tables Dec 19.xlsx
+++ b/Lancet Covid-19 Commission Data/December 2020 Statement/Lancet Tables Dec 2020/Final Tables/Lancet Tables Dec 19.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isminiethridge/Dropbox/IE_COVID-19/Lancet Covid-19 Data/Lancet Tables Dec 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isminiethridge/Dropbox/JDS_Data/Lancet Covid-19 Commission Data/December 2020 Statement/Lancet Tables Dec 2020/Final Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137467AC-1050-B243-8AF2-6503C2B2FC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1291FD38-33C4-084E-9AA2-1F54E7036263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15700" xr2:uid="{BD169860-37C9-8544-A1AA-22DEBB65DE21}"/>
+    <workbookView xWindow="32880" yWindow="2060" windowWidth="27240" windowHeight="15700" xr2:uid="{BD169860-37C9-8544-A1AA-22DEBB65DE21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -267,15 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -310,6 +301,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -628,7 +628,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,84 +648,84 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>2360000000</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>195458</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>0.90900000000000003</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>167726</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>0.78</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="11">
         <v>637620</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="12">
         <v>2.9299999999999997</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="11">
         <v>822832</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="20">
         <v>4.4101265822784814</v>
       </c>
     </row>
@@ -733,31 +733,31 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>1439323774</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>89173</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>0.68082180000000003</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>2506</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>1.9132900000000001E-2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>5760</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>4.3498700000000001E-2</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>4308</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="21">
         <v>3.7886973417721521E-2</v>
       </c>
     </row>
@@ -765,285 +765,285 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <f>B3-B4</f>
         <v>920676226</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>106285</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>1.268597</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <v>165220</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>1.9720340000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>631860</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>7.4597819999999997</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <v>818524</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="21">
         <v>11.253752531645569</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>747000000</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>1598973</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>23.5</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>1942241</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>28.6</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>2671431</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>38.9</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>15800000</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="21">
         <v>267.91518987341772</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>653000000</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>894756</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>15.1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>2590649</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>43.6</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>6795207</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <v>113.1</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>5131043</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="21">
         <v>99.482278481012656</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>525000000</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>303220</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>6.3500000000000005</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="11">
         <v>851574</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>17.8</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>1417743</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="12">
         <v>29.4</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="11">
         <v>3633946</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="21">
         <v>87.69367088607595</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>369000000</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>937752</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>27.900000000000002</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>2544166</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>75.8</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>4640735</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>136.69999999999999</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="11">
         <v>10400000</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="21">
         <v>356.11772151898737</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>2010000000</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>848727</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>4.6399999999999997</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>1214731</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>6.6499999999999995</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>6567119</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="12">
         <v>35.5</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>4950528</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="21">
         <v>31.21012658227848</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>1090000000</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>117571</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>1.18</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>295453</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>2.9699999999999998</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>838190</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="12">
         <v>8.33</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="11">
         <v>457829</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="21">
         <v>5.3006329113924053</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <f>SUM(B3,B6:B11)</f>
         <v>7754000000</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <f>SUM(C3,C6:C11)</f>
         <v>4896457</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <f>((C12/B12)/91)*1000000</f>
         <v>6.9392855017048989</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <f>SUM(E3:E11)</f>
         <v>9774266</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <f>((E12/B12)/91)*1000000</f>
         <v>13.852142956347237</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="16">
         <f t="shared" ref="G12" si="0">SUM(G3,G6:G11)</f>
         <v>23568045</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <f>((G12/B12)/92)*1000000</f>
         <v>33.037709849614785</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <f t="shared" ref="I12" si="1">SUM(I3,I6:I11)</f>
         <v>41196178</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="17">
         <f>((I12/$B$12)/79)*1000000</f>
         <v>67.251819395787564</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
     </row>
